--- a/Tabelas.xlsx
+++ b/Tabelas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x237303\Documents\QB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C75299D9-EC6A-4D81-9A0C-4F2495A2B76A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4358F336-C269-4030-B1C9-7A7B2230C43E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{43C2801C-8CCD-4C1E-9E2F-9692CBECC02B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Sigla</t>
   </si>
@@ -166,13 +166,94 @@
   </si>
   <si>
     <t>Tabela de limite de cartão.</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>Pré-aprovado PF.</t>
+  </si>
+  <si>
+    <t>thdt036</t>
+  </si>
+  <si>
+    <t>http://datapedia.santanderbr.corp/asset/ba985a23-ab5a-4f1b-90c8-b776eccdbb51</t>
+  </si>
+  <si>
+    <t>Diária (dias úteis D-1 )</t>
+  </si>
+  <si>
+    <r>
+      <t>PII(CPF)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Rating de Risco
+Valor de Limite</t>
+    </r>
+  </si>
+  <si>
+    <t>Tabela para armazenar dados que serão usados para a composição de rendas dos clientes. esta informação passou a ser feita pelo TH e não mais PE.</t>
+  </si>
+  <si>
+    <t>thdt086</t>
+  </si>
+  <si>
+    <t>http://datapedia.santanderbr.corp/asset/58361986-a0de-44f3-a386-37a33cad63ab</t>
+  </si>
+  <si>
+    <t>Fabio Pires Benatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PII(CPF) </t>
+  </si>
+  <si>
+    <t>Diária (dias úteis )</t>
+  </si>
+  <si>
+    <t>Entidade que armazena as Operações de Risco do cliente na data-base, resultado da consulta ao Sistema de Consulta de Riscos Bacen (SCR) com a Posição dos seus clientes no SFN. São armazenadas nesta base todas as modalidades, submodalidades e faixas de vencimento apuradas por cliente. É mantido um histórico dos últimos 13 meses.</t>
+  </si>
+  <si>
+    <t>Diária (all days D-1)</t>
+  </si>
+  <si>
+    <t>http://datapedia.santanderbr.corp/asset/ed27817b-3115-4481-9eb0-9b263aa7ffa9</t>
+  </si>
+  <si>
+    <t>PII(CPF/CNPJ)
+Operação Bacen</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>qqdt514</t>
+  </si>
+  <si>
+    <t>qqdt513</t>
+  </si>
+  <si>
+    <t>Entidade que armazena a Posição do Cliente na data-base, resultado da consulta ao Sistema de Consulta de Riscos Bacen (SCR) com a Posição dos seus clientes no SFN. É mantido um histórico dos últimos 13 meses.</t>
+  </si>
+  <si>
+    <t>PII(CPF/CNPJ)
+Cliente Bacen</t>
+  </si>
+  <si>
+    <t>Platinum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +280,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44494D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +357,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E690EEF4-9C6A-42F3-AA6F-005D24E20366}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +704,7 @@
     <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -612,7 +729,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I1" t="s">
@@ -645,7 +762,7 @@
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="6"/>
@@ -670,7 +787,7 @@
       <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="6"/>
@@ -681,7 +798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -697,7 +814,7 @@
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="6"/>
@@ -708,7 +825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -724,7 +841,7 @@
       <c r="G5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6"/>
@@ -735,7 +852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -751,7 +868,7 @@
       <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="13" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="6"/>
@@ -778,7 +895,7 @@
       <c r="G7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="6"/>
@@ -789,18 +906,102 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="3"/>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="240.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="144" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="C2:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{0134EFDC-F313-4A33-B8E4-0FF5887A7E0F}"/>
@@ -809,8 +1010,11 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{D8DA088D-493C-4590-8106-56446CEDB845}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{79D7A729-D87F-4D5E-86D0-024B0216EC59}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{3143F730-DC5E-426A-9356-470D59854CEF}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{CC9F14DD-98ED-4F6E-889D-18F9053FCA27}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{43F3396F-6ED6-4DBE-AA95-280ECFDD56EF}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{81994B68-DA3D-45CB-8913-8F2709FAB422}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>